--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A47BD-200F-486A-BCB4-CA23925ECACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A351AF1-C215-47E9-9D22-6CCC217BFDDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>STX</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>ETX</t>
+  </si>
+  <si>
+    <t>Failsafe</t>
   </si>
 </sst>
 </file>
@@ -373,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -442,8 +445,11 @@
       <c r="T1">
         <v>19</v>
       </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,13 +505,16 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0</v>
       </c>
@@ -553,6 +562,9 @@
       </c>
       <c r="R4">
         <v>15</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A351AF1-C215-47E9-9D22-6CCC217BFDDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C209A5-1136-4E4F-AAD7-4499B69D1A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>STX</t>
   </si>
@@ -58,7 +58,10 @@
     <t>ETX</t>
   </si>
   <si>
-    <t>Failsafe</t>
+    <t>Failsafe LED State</t>
+  </si>
+  <si>
+    <t>Failsafe LED Blinking</t>
   </si>
 </sst>
 </file>
@@ -376,15 +379,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="U1">
         <v>20</v>
       </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,16 +515,19 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0</v>
       </c>
@@ -565,6 +578,9 @@
       </c>
       <c r="S4">
         <v>16</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
